--- a/CashFlow/XRAY_cashflow.xlsx
+++ b/CashFlow/XRAY_cashflow.xlsx
@@ -742,19 +742,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>2095000000.0</v>
+        <v>124000000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>1691100000.0</v>
+        <v>635800000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1172000000.0</v>
+        <v>530900000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>636200000.0</v>
+        <v>487800000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>13700000.0</v>
+        <v>513600000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>14900000.0</v>
@@ -990,19 +990,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>-23000000.0</v>
+        <v>1033000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>-8100000.0</v>
+        <v>1036000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>13500000.0</v>
+        <v>838600000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>82300000.0</v>
+        <v>633600000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>21100000.0</v>
+        <v>272500000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>-28100000.0</v>
